--- a/classification/classification-nomenclature.xlsx
+++ b/classification/classification-nomenclature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tthuem\git\paper-BibTeX\bibtex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tthuem\git\archive\paper-BibTeX\bibtex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Analysis Method</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>product-family-based implementation</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ADD</t>
   </si>
 </sst>
 </file>
@@ -798,7 +807,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +995,9 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
       <c r="G8" t="s">
         <v>57</v>
       </c>
@@ -1090,6 +1102,9 @@
       <c r="B15" t="s">
         <v>78</v>
       </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1097,6 +1112,9 @@
       </c>
       <c r="B16" t="s">
         <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/classification/classification-nomenclature.xlsx
+++ b/classification/classification-nomenclature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tthuem\git\archive\paper-BibTeX\bibtex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tthuem\git\BibTags\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Analysis Method</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>ADD</t>
+  </si>
+  <si>
+    <t>information retrieval</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +941,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -961,7 +964,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1024,7 +1027,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -1119,21 +1122,26 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>

--- a/classification/classification-nomenclature.xlsx
+++ b/classification/classification-nomenclature.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Analysis Method</t>
   </si>
@@ -468,12 +468,21 @@
   </si>
   <si>
     <t>information retrieval</t>
+  </si>
+  <si>
+    <t>QFLan</t>
+  </si>
+  <si>
+    <t>Maude</t>
+  </si>
+  <si>
+    <t>MultiVeSta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,7 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,11 +818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -1120,27 +1129,36 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>

--- a/classification/classification-nomenclature.xlsx
+++ b/classification/classification-nomenclature.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>Analysis Method</t>
   </si>
@@ -477,6 +477,27 @@
   </si>
   <si>
     <t>MultiVeSta</t>
+  </si>
+  <si>
+    <t>COQ</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>FMCAT</t>
+  </si>
+  <si>
+    <t>FeatureIDE</t>
+  </si>
+  <si>
+    <t>annotation-based implementation</t>
+  </si>
+  <si>
+    <t>composition-based implementation</t>
   </si>
 </sst>
 </file>
@@ -816,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1124,9 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
       <c r="G14" t="s">
         <v>76</v>
       </c>
@@ -1114,6 +1138,9 @@
       <c r="B15" t="s">
         <v>78</v>
       </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
       <c r="G15" t="s">
         <v>83</v>
       </c>
@@ -1125,6 +1152,9 @@
       <c r="B16" t="s">
         <v>80</v>
       </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
       <c r="G16" t="s">
         <v>85</v>
       </c>
@@ -1153,14 +1183,35 @@
         <v>89</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/classification/classification-nomenclature.xlsx
+++ b/classification/classification-nomenclature.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>Analysis Method</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>composition-based implementation</t>
+  </si>
+  <si>
+    <t>statistical model checking</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,27 +1187,30 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
       <c r="G20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
       <c r="G21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
       <c r="G23" t="s">
         <v>93</v>
       </c>
